--- a/data/01_raw/Simulated Caregiving - Easy v Demanding.xlsx
+++ b/data/01_raw/Simulated Caregiving - Easy v Demanding.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://missionautismclinics2020-my.sharepoint.com/personal/kglodowski_missionautismclinics_com/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidjcox/Dropbox (Personal)/Projects/Manuscripts In Progress/Empirical/Collaborations/Aversive Control (KG)/negative_reinforcement_caregiving/data/01_raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="119" documentId="8_{8E89E828-4CE9-4B8E-9F33-ADA89D13A459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD84B494-AEB1-4F10-8F53-9111F9B6B83F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC27619-7C39-4A44-A7E5-51128D47B3A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="8" activeTab="16" xr2:uid="{5873398A-AF06-455C-9F57-3D46CB7B02F4}"/>
+    <workbookView xWindow="6020" yWindow="500" windowWidth="23260" windowHeight="12580" firstSheet="8" activeTab="16" xr2:uid="{5873398A-AF06-455C-9F57-3D46CB7B02F4}"/>
   </bookViews>
   <sheets>
     <sheet name="SP2018-1" sheetId="1" r:id="rId1"/>
@@ -82,10 +82,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -111,21 +117,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,14 +451,14 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -464,7 +469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -475,7 +480,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -486,7 +491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -497,7 +502,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -508,7 +513,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -519,7 +524,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
@@ -530,7 +535,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
@@ -541,7 +546,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -552,7 +557,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>3</v>
       </c>
@@ -563,7 +568,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
@@ -574,7 +579,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>3</v>
       </c>
@@ -585,7 +590,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
@@ -596,7 +601,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>2</v>
       </c>
@@ -607,7 +612,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
@@ -618,7 +623,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
@@ -629,7 +634,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>2</v>
       </c>
@@ -640,7 +645,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>2</v>
       </c>
@@ -651,7 +656,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>2</v>
       </c>
@@ -662,7 +667,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>3</v>
       </c>
@@ -673,7 +678,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>3</v>
       </c>
@@ -684,7 +689,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>3</v>
       </c>
@@ -695,7 +700,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>3</v>
       </c>
@@ -706,7 +711,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>3</v>
       </c>
@@ -717,7 +722,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>3</v>
       </c>
@@ -735,21 +740,20 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F0CABD-CF15-4B86-B90B-125EF3079395}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="5"/>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -760,7 +764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -771,7 +775,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -782,7 +786,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -793,7 +797,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -804,7 +808,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -815,7 +819,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
@@ -826,7 +830,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
@@ -837,7 +841,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -848,7 +852,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>3</v>
       </c>
@@ -859,7 +863,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
@@ -870,7 +874,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>3</v>
       </c>
@@ -881,7 +885,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
@@ -892,7 +896,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>2</v>
       </c>
@@ -903,7 +907,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
@@ -914,7 +918,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
@@ -925,7 +929,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>2</v>
       </c>
@@ -936,7 +940,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>2</v>
       </c>
@@ -947,7 +951,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>2</v>
       </c>
@@ -958,7 +962,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>3</v>
       </c>
@@ -969,7 +973,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>3</v>
       </c>
@@ -980,7 +984,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>3</v>
       </c>
@@ -991,7 +995,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1002,7 +1006,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1013,7 +1017,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>3</v>
       </c>
@@ -1031,21 +1035,20 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CCEDDB7-0844-4FB2-B149-45AD677EFC4F}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="5"/>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1056,7 +1059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1067,7 +1070,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1078,7 +1081,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1089,7 +1092,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -1100,7 +1103,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -1111,7 +1114,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
@@ -1122,7 +1125,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
@@ -1133,7 +1136,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -1144,7 +1147,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>3</v>
       </c>
@@ -1155,7 +1158,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
@@ -1166,7 +1169,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1177,7 +1180,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
@@ -1188,7 +1191,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>2</v>
       </c>
@@ -1199,7 +1202,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
@@ -1210,7 +1213,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
@@ -1221,7 +1224,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>2</v>
       </c>
@@ -1232,7 +1235,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>2</v>
       </c>
@@ -1243,7 +1246,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>2</v>
       </c>
@@ -1254,7 +1257,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1265,7 +1268,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1276,7 +1279,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1287,7 +1290,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1298,7 +1301,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1309,7 +1312,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>3</v>
       </c>
@@ -1333,14 +1336,14 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1351,7 +1354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1362,7 +1365,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1373,7 +1376,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1384,7 +1387,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -1395,7 +1398,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -1406,7 +1409,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
@@ -1417,7 +1420,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
@@ -1428,7 +1431,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -1439,7 +1442,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>3</v>
       </c>
@@ -1450,7 +1453,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
@@ -1461,7 +1464,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1472,7 +1475,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
@@ -1483,7 +1486,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -1494,7 +1497,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -1505,7 +1508,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
@@ -1516,7 +1519,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
@@ -1527,7 +1530,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
@@ -1538,7 +1541,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
@@ -1549,7 +1552,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>3</v>
       </c>
@@ -1560,7 +1563,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
@@ -1578,21 +1581,20 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F5670F8-65DF-49DB-AD58-157E14677A8F}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="5"/>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1603,7 +1605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1614,7 +1616,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1625,7 +1627,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1636,7 +1638,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -1647,7 +1649,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -1658,7 +1660,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
@@ -1669,7 +1671,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
@@ -1680,7 +1682,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -1691,7 +1693,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>3</v>
       </c>
@@ -1702,7 +1704,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
@@ -1713,7 +1715,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1724,7 +1726,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
@@ -1735,7 +1737,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -1746,7 +1748,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -1757,7 +1759,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
@@ -1768,7 +1770,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
@@ -1779,7 +1781,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
@@ -1790,7 +1792,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
@@ -1801,7 +1803,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>3</v>
       </c>
@@ -1819,21 +1821,20 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52CC7DCA-4C26-4EA5-9EC6-4C186838B82F}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="5"/>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1844,7 +1845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1855,7 +1856,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1866,7 +1867,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1877,7 +1878,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -1888,7 +1889,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -1899,7 +1900,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
@@ -1910,7 +1911,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
@@ -1921,7 +1922,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -1932,7 +1933,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>3</v>
       </c>
@@ -1943,7 +1944,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
@@ -1954,7 +1955,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1965,7 +1966,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
@@ -1976,7 +1977,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>2</v>
       </c>
@@ -1987,7 +1988,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
@@ -1998,7 +1999,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
@@ -2009,7 +2010,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>2</v>
       </c>
@@ -2020,7 +2021,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>2</v>
       </c>
@@ -2031,7 +2032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>2</v>
       </c>
@@ -2042,7 +2043,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>3</v>
       </c>
@@ -2053,7 +2054,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>3</v>
       </c>
@@ -2064,7 +2065,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>3</v>
       </c>
@@ -2075,7 +2076,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>3</v>
       </c>
@@ -2086,7 +2087,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>3</v>
       </c>
@@ -2097,7 +2098,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>3</v>
       </c>
@@ -2115,18 +2116,18 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6BFD9E0-35F5-4082-BDD0-141765F296A1}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="10.88671875" style="5" customWidth="1"/>
+    <col min="1" max="4" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -2137,7 +2138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2148,7 +2149,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2159,7 +2160,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2170,7 +2171,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -2181,7 +2182,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -2192,7 +2193,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -2203,7 +2204,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -2214,7 +2215,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -2225,7 +2226,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
@@ -2236,7 +2237,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -2247,7 +2248,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
@@ -2258,7 +2259,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
@@ -2269,7 +2270,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
@@ -2280,7 +2281,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
@@ -2298,21 +2299,20 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0BBC75F-1163-41B7-B1EB-3C9567717E06}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="8" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="5"/>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -2323,7 +2323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2356,7 +2356,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -2367,7 +2367,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -2378,7 +2378,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -2389,7 +2389,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -2400,7 +2400,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -2411,7 +2411,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -2422,7 +2422,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -2433,7 +2433,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
@@ -2444,7 +2444,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
@@ -2455,7 +2455,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -2466,7 +2466,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
@@ -2477,7 +2477,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
@@ -2488,7 +2488,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
@@ -2509,18 +2509,18 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="8" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -2534,7 +2534,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2546,7 +2546,7 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2558,7 +2558,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2570,7 +2570,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -2582,7 +2582,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -2594,7 +2594,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -2606,7 +2606,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -2618,7 +2618,7 @@
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -2630,7 +2630,7 @@
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
@@ -2642,7 +2642,7 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
@@ -2666,7 +2666,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
@@ -2678,7 +2678,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -2692,7 +2692,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
@@ -2706,7 +2706,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
@@ -2720,7 +2720,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>5</v>
       </c>
@@ -2734,7 +2734,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
@@ -2749,25 +2749,25 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F7DFEEB-E874-4660-83DE-3F6C44754BE9}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="5"/>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -2778,7 +2778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -2789,7 +2789,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -2800,7 +2800,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -2811,7 +2811,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -2822,7 +2822,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -2833,7 +2833,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
@@ -2844,7 +2844,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
@@ -2855,7 +2855,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -2866,7 +2866,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>3</v>
       </c>
@@ -2877,7 +2877,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
@@ -2888,7 +2888,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>3</v>
       </c>
@@ -2899,7 +2899,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>2</v>
       </c>
@@ -2921,7 +2921,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
@@ -2932,7 +2932,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
@@ -2943,7 +2943,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>2</v>
       </c>
@@ -2954,7 +2954,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>2</v>
       </c>
@@ -2965,7 +2965,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>2</v>
       </c>
@@ -2976,7 +2976,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>3</v>
       </c>
@@ -2987,7 +2987,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>3</v>
       </c>
@@ -2998,7 +2998,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>3</v>
       </c>
@@ -3009,7 +3009,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>3</v>
       </c>
@@ -3020,7 +3020,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>3</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>3</v>
       </c>
@@ -3055,14 +3055,14 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -3084,7 +3084,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -3095,7 +3095,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -3106,7 +3106,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -3117,7 +3117,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -3128,7 +3128,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
@@ -3139,7 +3139,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -3161,7 +3161,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>3</v>
       </c>
@@ -3172,7 +3172,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
@@ -3183,7 +3183,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>3</v>
       </c>
@@ -3194,7 +3194,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
@@ -3205,7 +3205,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>2</v>
       </c>
@@ -3216,7 +3216,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
@@ -3238,7 +3238,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>2</v>
       </c>
@@ -3249,7 +3249,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>2</v>
       </c>
@@ -3260,7 +3260,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>2</v>
       </c>
@@ -3271,7 +3271,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>3</v>
       </c>
@@ -3282,7 +3282,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>3</v>
       </c>
@@ -3293,7 +3293,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>3</v>
       </c>
@@ -3304,7 +3304,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>3</v>
       </c>
@@ -3315,7 +3315,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>3</v>
       </c>
@@ -3326,7 +3326,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>3</v>
       </c>
@@ -3344,21 +3344,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F78500A4-98B0-4155-8ADC-A7F3F5EA351F}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="5"/>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3369,7 +3368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -3380,7 +3379,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -3391,7 +3390,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -3402,7 +3401,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -3413,7 +3412,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -3424,7 +3423,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
@@ -3435,7 +3434,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
@@ -3446,7 +3445,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -3457,7 +3456,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>3</v>
       </c>
@@ -3468,7 +3467,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
@@ -3479,7 +3478,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>3</v>
       </c>
@@ -3490,7 +3489,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
@@ -3501,7 +3500,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>2</v>
       </c>
@@ -3512,7 +3511,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
@@ -3523,7 +3522,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
@@ -3534,7 +3533,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>2</v>
       </c>
@@ -3545,7 +3544,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>2</v>
       </c>
@@ -3556,7 +3555,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>2</v>
       </c>
@@ -3567,7 +3566,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>3</v>
       </c>
@@ -3578,7 +3577,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>3</v>
       </c>
@@ -3589,7 +3588,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>3</v>
       </c>
@@ -3600,7 +3599,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>3</v>
       </c>
@@ -3611,7 +3610,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>3</v>
       </c>
@@ -3622,7 +3621,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>3</v>
       </c>
@@ -3646,14 +3645,14 @@
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3664,7 +3663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -3675,7 +3674,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -3686,7 +3685,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -3697,7 +3696,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -3708,7 +3707,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -3719,7 +3718,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
@@ -3730,7 +3729,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
@@ -3741,7 +3740,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -3752,7 +3751,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>3</v>
       </c>
@@ -3763,7 +3762,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
@@ -3774,7 +3773,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>3</v>
       </c>
@@ -3785,7 +3784,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
@@ -3796,7 +3795,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>2</v>
       </c>
@@ -3807,7 +3806,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
@@ -3818,7 +3817,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
@@ -3829,7 +3828,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>2</v>
       </c>
@@ -3840,7 +3839,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>2</v>
       </c>
@@ -3851,7 +3850,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>2</v>
       </c>
@@ -3862,7 +3861,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>3</v>
       </c>
@@ -3873,7 +3872,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>3</v>
       </c>
@@ -3884,7 +3883,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>3</v>
       </c>
@@ -3895,7 +3894,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>3</v>
       </c>
@@ -3906,7 +3905,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>3</v>
       </c>
@@ -3917,7 +3916,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>3</v>
       </c>
@@ -3928,7 +3927,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>2</v>
       </c>
@@ -3939,7 +3938,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>2</v>
       </c>
@@ -3950,7 +3949,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>2</v>
       </c>
@@ -3961,17 +3960,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="4"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="4"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="4"/>
       <c r="C31" s="1"/>
@@ -3983,21 +3982,20 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0698F5EC-FED9-47DD-A372-F18A697F6E6D}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="5"/>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4008,7 +4006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -4019,7 +4017,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -4030,7 +4028,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -4041,7 +4039,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -4052,7 +4050,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -4063,7 +4061,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
@@ -4074,7 +4072,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
@@ -4085,7 +4083,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -4096,7 +4094,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>3</v>
       </c>
@@ -4107,7 +4105,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
@@ -4118,7 +4116,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>3</v>
       </c>
@@ -4129,7 +4127,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
@@ -4140,7 +4138,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>2</v>
       </c>
@@ -4151,7 +4149,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
@@ -4162,7 +4160,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
@@ -4173,7 +4171,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>2</v>
       </c>
@@ -4184,7 +4182,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>2</v>
       </c>
@@ -4195,7 +4193,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>2</v>
       </c>
@@ -4206,7 +4204,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>3</v>
       </c>
@@ -4217,7 +4215,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>3</v>
       </c>
@@ -4228,7 +4226,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>3</v>
       </c>
@@ -4239,7 +4237,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>3</v>
       </c>
@@ -4250,7 +4248,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>3</v>
       </c>
@@ -4261,7 +4259,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>3</v>
       </c>
@@ -4286,14 +4284,14 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4304,7 +4302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -4315,7 +4313,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -4326,7 +4324,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -4337,7 +4335,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -4348,7 +4346,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -4359,7 +4357,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
@@ -4370,7 +4368,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
@@ -4381,7 +4379,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -4392,7 +4390,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>3</v>
       </c>
@@ -4403,7 +4401,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
@@ -4414,7 +4412,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>3</v>
       </c>
@@ -4425,7 +4423,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
@@ -4436,7 +4434,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>2</v>
       </c>
@@ -4447,7 +4445,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
@@ -4458,7 +4456,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
@@ -4469,7 +4467,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>2</v>
       </c>
@@ -4480,7 +4478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>2</v>
       </c>
@@ -4491,7 +4489,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>2</v>
       </c>
@@ -4502,7 +4500,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>3</v>
       </c>
@@ -4513,7 +4511,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>3</v>
       </c>
@@ -4524,7 +4522,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>3</v>
       </c>
@@ -4535,7 +4533,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>3</v>
       </c>
@@ -4546,7 +4544,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>3</v>
       </c>
@@ -4557,7 +4555,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>3</v>
       </c>
@@ -4575,21 +4573,20 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BAF727A-8B18-41EF-B426-77EE5DF0ADD8}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="5"/>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4600,7 +4597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -4611,7 +4608,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -4622,7 +4619,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -4633,7 +4630,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -4644,7 +4641,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -4655,7 +4652,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
@@ -4666,7 +4663,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
@@ -4677,7 +4674,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -4688,7 +4685,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>3</v>
       </c>
@@ -4699,7 +4696,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
@@ -4710,7 +4707,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>3</v>
       </c>
@@ -4721,7 +4718,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
@@ -4732,7 +4729,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>2</v>
       </c>
@@ -4743,7 +4740,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
@@ -4754,7 +4751,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
@@ -4765,7 +4762,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>2</v>
       </c>
@@ -4776,7 +4773,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>2</v>
       </c>
@@ -4787,7 +4784,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>2</v>
       </c>
@@ -4798,7 +4795,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>3</v>
       </c>
@@ -4809,7 +4806,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>3</v>
       </c>
@@ -4820,7 +4817,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>3</v>
       </c>
@@ -4831,7 +4828,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>3</v>
       </c>
@@ -4842,7 +4839,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>2</v>
       </c>
@@ -4853,7 +4850,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>2</v>
       </c>
@@ -4864,7 +4861,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>2</v>
       </c>
@@ -4888,14 +4885,14 @@
       <selection sqref="A1:XFD38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4906,7 +4903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -4917,7 +4914,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -4928,7 +4925,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -4939,7 +4936,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -4950,7 +4947,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -4961,7 +4958,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
@@ -4972,7 +4969,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
@@ -4983,7 +4980,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -4994,7 +4991,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>3</v>
       </c>
@@ -5005,7 +5002,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
@@ -5016,7 +5013,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>3</v>
       </c>
@@ -5027,7 +5024,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
@@ -5038,7 +5035,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>2</v>
       </c>
@@ -5049,7 +5046,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
@@ -5060,7 +5057,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
@@ -5071,7 +5068,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>2</v>
       </c>
@@ -5082,7 +5079,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>2</v>
       </c>
@@ -5093,7 +5090,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>2</v>
       </c>
@@ -5104,7 +5101,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>3</v>
       </c>
@@ -5115,7 +5112,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>3</v>
       </c>
@@ -5126,7 +5123,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>3</v>
       </c>
@@ -5137,7 +5134,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>3</v>
       </c>
@@ -5148,7 +5145,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>3</v>
       </c>
@@ -5159,7 +5156,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>3</v>
       </c>
